--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FAE008C-192E-4F89-AF1B-98D1D5C97658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07144D8A-B988-4706-B694-E22F1B526AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -94,6 +94,24 @@
   </si>
   <si>
     <t>LongestRepeatingCharacterReplacement</t>
+  </si>
+  <si>
+    <t>Heap</t>
+  </si>
+  <si>
+    <t>Hands of straight</t>
+  </si>
+  <si>
+    <t>Greedy</t>
+  </si>
+  <si>
+    <t>All interval problem</t>
+  </si>
+  <si>
+    <t>BinaryTree</t>
+  </si>
+  <si>
+    <t>Maximum Width Of BT</t>
   </si>
 </sst>
 </file>
@@ -420,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -543,6 +561,36 @@
         <v>22</v>
       </c>
     </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>28</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07144D8A-B988-4706-B694-E22F1B526AFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E396F3-6D36-4B74-B0CB-7093674A8C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -112,6 +112,15 @@
   </si>
   <si>
     <t>Maximum Width Of BT</t>
+  </si>
+  <si>
+    <t>BST</t>
+  </si>
+  <si>
+    <t>Recover BST</t>
+  </si>
+  <si>
+    <t>Largest BST in BT</t>
   </si>
 </sst>
 </file>
@@ -438,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A37"/>
+  <dimension ref="A1:A41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -591,7 +600,23 @@
         <v>28</v>
       </c>
     </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78E396F3-6D36-4B74-B0CB-7093674A8C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DC1A3-EFBE-4A63-B18B-786A6ACC2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5028" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -121,6 +121,12 @@
   </si>
   <si>
     <t>Largest BST in BT</t>
+  </si>
+  <si>
+    <t>CombinationSum</t>
+  </si>
+  <si>
+    <t>SubsetSum</t>
   </si>
 </sst>
 </file>
@@ -164,9 +170,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,108 +517,118 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>18</v>
+      <c r="A23" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>21</v>
+      <c r="A27" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>31</v>
       </c>
     </row>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{722DC1A3-EFBE-4A63-B18B-786A6ACC2F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87E5A0-7037-41B4-9DB2-7E07EC2142DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5028" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -170,10 +170,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,12 +522,12 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>33</v>
       </c>
     </row>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A87E5A0-7037-41B4-9DB2-7E07EC2142DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36138AC-9A81-42DB-A093-C65B0ADB6277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -63,15 +63,9 @@
     <t>RECURSION</t>
   </si>
   <si>
-    <t>PalindromicPartition</t>
-  </si>
-  <si>
     <t>WordSearch</t>
   </si>
   <si>
-    <t>WordBreak</t>
-  </si>
-  <si>
     <t>StackQueue</t>
   </si>
   <si>
@@ -127,6 +121,18 @@
   </si>
   <si>
     <t>SubsetSum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PalindromicPartition - f(index) means ki 0 to index ke all possible partitions ho gye hai ab index to n tak ke all possible partition krne hai, since apan ko ek hi baar mai decide krna hai ki konse character tak parttion krna hai toh index vaali call mai for loop lagao jo ki index se start hogi and n tak jaaegi, suppose abhi loop ki value i hai toh check kro index to i kya palindrome hai, if yes toh partition krdo and aage call krdo f(i+1) ko, else for loop i+1 pr jaaegi </t>
+  </si>
+  <si>
+    <t>WordBreak - ditto same as palindromic partition , only difference is ki usme check krte the ki index is palindrome or not , and here we check whether the substring form index to i is present in dictionary or not</t>
+  </si>
+  <si>
+    <t>ExpressionAddOperators - same as palindromic partition with some important points</t>
+  </si>
+  <si>
+    <t>So the point is Palindromic partition, word break, expression add operators all fall in same category jisme apan ko choice ye nhi leni ki take/no take,but choice is ki kitne ek saath take kre. And all have similar code</t>
   </si>
 </sst>
 </file>
@@ -453,10 +459,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A44"/>
+  <dimension ref="A1:A46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -523,112 +529,122 @@
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>14</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>16</v>
+      <c r="A23" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>17</v>
+      <c r="A25" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E36138AC-9A81-42DB-A093-C65B0ADB6277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0C86A-0571-4D4E-A90D-D3A9A334D77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>So the point is Palindromic partition, word break, expression add operators all fall in same category jisme apan ko choice ye nhi leni ki take/no take,but choice is ki kitne ek saath take kre. And all have similar code</t>
+  </si>
+  <si>
+    <t>Merge Interval(Arrays Hard)(leetcode 56) - first sort on basis of start/end time and then can be done using stack.Check whether current interval overlap with the peek of the stack if yes then merge and update the peek of stack else put current element as peek. Since intervals are sorted on start time, toh overlap ki condition sirf ek hi hai stackPeek.endTime&gt;=currentInterval.startTime</t>
+  </si>
+  <si>
+    <t>N Meetings in a room - sort on ending time and then take example, u will understand how to do it. Intution is explained in code in intelij. Take a pointer to store endtime of last meeting u attended</t>
   </si>
 </sst>
 </file>
@@ -459,10 +465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A46"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,28 +628,38 @@
         <v>24</v>
       </c>
     </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>26</v>
+      <c r="A41" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA0C86A-0571-4D4E-A90D-D3A9A334D77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0A822D-7C1D-4D70-84FE-58F64B68F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>N Meetings in a room - sort on ending time and then take example, u will understand how to do it. Intution is explained in code in intelij. Take a pointer to store endtime of last meeting u attended</t>
+  </si>
+  <si>
+    <t>Minimum number of platforms required for railway - sort the start time and ending time individually. And then every time start times comes, counter increases by one and every time endtime comes, counter decreases by one. The max value of count is the ans</t>
+  </si>
+  <si>
+    <t>Job sequencing - sort the jobs in according to profit. Har job ko bilkul deadline mai perform kro. Create an array to mark kis din konsi job kri, usi se pata padega konsa din khaali hai jisme koii job nhi kri</t>
+  </si>
+  <si>
+    <t>InsertInterval - pehle voh first index dhoondo jaha insert hoga(let k). Ab kth index ko merge krdo newInterval se, but usse k to n vale mai problems aa skti hai toh , apply merge intervals algorithm from kth index. Means first element in the stack will be kth index</t>
   </si>
 </sst>
 </file>
@@ -465,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A49"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41"/>
+      <selection activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -638,28 +647,43 @@
         <v>37</v>
       </c>
     </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>39</v>
+      </c>
+    </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>26</v>
+      <c r="A44" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE0A822D-7C1D-4D70-84FE-58F64B68F752}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470BCCC-ABA0-4222-9E9D-AEB84997D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>InsertInterval - pehle voh first index dhoondo jaha insert hoga(let k). Ab kth index ko merge krdo newInterval se, but usse k to n vale mai problems aa skti hai toh , apply merge intervals algorithm from kth index. Means first element in the stack will be kth index</t>
+  </si>
+  <si>
+    <t>NonOverlappingIntervals - N meetings in a room gives max number of meeting that can be attended(let x). N-x is the min number of meeting to be removed</t>
   </si>
 </sst>
 </file>
@@ -477,7 +480,7 @@
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD45"/>
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -662,6 +665,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>25</v>

--- a/Important2.xlsx
+++ b/Important2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\Desktop\InternshipNotes\Data Structures\StriverA2Z\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4470BCCC-ABA0-4222-9E9D-AEB84997D68D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3231269-660A-4F59-8587-54888F703806}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>ARRAYS</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>NonOverlappingIntervals - N meetings in a room gives max number of meeting that can be attended(let x). N-x is the min number of meeting to be removed</t>
+  </si>
+  <si>
+    <t>Iske alawa koi interval ka question aaye toh don't try to apply greedy, instead apply recursion(all possible ways). Coz greedy har problem pr nhi lgta and jispr lagta hai uspr bhi krne ka ek unique way hota hai jo ki ratna padta hai</t>
   </si>
 </sst>
 </file>
@@ -480,7 +483,7 @@
   <dimension ref="A1:A52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+      <selection activeCell="A46" sqref="A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,6 +673,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>42</v>
+      </c>
+    </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>25</v>
